--- a/biology/Botanique/Erythronium/Erythronium.xlsx
+++ b/biology/Botanique/Erythronium/Erythronium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Erythronium est un genre de plantes herbacées de la famille des Liliaceae.
 Ces espèces sont parfois appelées « dent-de-chien » en raison de leur bulbe qui ressemble à une canine de chien ou parfois, pour les anglophones, « trout lily » car les feuilles de plusieurs espèces ont des taches un peu comme une truite arc-en-ciel. 
@@ -514,9 +526,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>32 espèces sont acceptées à l'heure actuelle dans ce genre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>32 espèces sont acceptées à l'heure actuelle dans ce genre :
 Erythronium albidum Nutt.
 Erythronium americanum Ker Gawl.
 Erythronium californicum Purdy
@@ -578,8 +592,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les espèces eurasiatiques
-Erythronium dens-canis L. - la seule espèce européenne, est originaire des montagnes du sud de l’Europe. Elle a des feuilles joliment tachetées et une fleur rose à gorge plus foncée et à étamines pourpres au sommet d’une tige de 10 cm.
+          <t>Les espèces eurasiatiques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Erythronium dens-canis L. - la seule espèce européenne, est originaire des montagnes du sud de l’Europe. Elle a des feuilles joliment tachetées et une fleur rose à gorge plus foncée et à étamines pourpres au sommet d’une tige de 10 cm.
 Erythronium caucasicum Woronow - originaire du Caucase et du nord de l’Iran, a une fleur blanche à étamines jaunes.
 Erythronium krylovii Stepanov est endémique des régions de Tuva et de Krasnoyarsk en Sibérie
 Erythronium sajanense Stepanov &amp; Stassova est endémique de la région de Krasnoyarsk en Sibérie
@@ -591,8 +610,43 @@
 			Erythronium sajanense
 			Erythronium sibiricum
 			Erythronium japonicum
-Les espèces de l’Est de l'Amérique du Nord
-Tout comme les espèces eurasiatiques les espèces de l’est de l'Amérique du Nord ont des tiges uniflores. Leurs feuilles sont en général tachetées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Erythronium</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erythronium</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Les espèces par répartition géographique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Les espèces de l’Est de l'Amérique du Nord</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tout comme les espèces eurasiatiques les espèces de l’est de l'Amérique du Nord ont des tiges uniflores. Leurs feuilles sont en général tachetées.
 Espèces à fleur blanche ou rose :
 Erythronium albidum Nutt. - une espèce naine du nord-est des États-Unis et du Canada, a une fleur blanche à gorge jaune et à étamines de couleur crème.
 Erythronium mesochoreum Knerr - une espèce similaire du Midwest, a des feuilles vertes ou faiblement tachetées et une fleur blanche à rosée, qui reste souvent peu ouverte.
@@ -605,8 +659,43 @@
 			Erythronium americanum
 			Erythronium propullans
 			Erythronium umbilicatum
-Les espèces de l’Ouest de l'Amérique du Nord
-Les espèces de l’Ouest de l'Amérique du Nord ont généralement plusieurs fleurs par tige. À l’exception de celles à fleurs jaunes et de quelques-unes à fleurs blanches ces espèces ont souvent des feuilles joliment marbrées. Elles sont principalement originaires des Monts Côtiers et de la zone subalpine des Monts Cascade (Oregon) et de la Sierra Nevada (Californie).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Erythronium</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erythronium</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Les espèces par répartition géographique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Les espèces de l’Ouest de l'Amérique du Nord</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de l’Ouest de l'Amérique du Nord ont généralement plusieurs fleurs par tige. À l’exception de celles à fleurs jaunes et de quelques-unes à fleurs blanches ces espèces ont souvent des feuilles joliment marbrées. Elles sont principalement originaires des Monts Côtiers et de la zone subalpine des Monts Cascade (Oregon) et de la Sierra Nevada (Californie).
 Espèces à fleurs blanches ou roses:
 Erythronium elegans P.C. Hammond &amp; K.L. Chambers - originaire des Monts Côtiers de l’Oregon a de grandes fleurs blanches à rosées.
 Erythronium hendersonii S. Watson - originaire des monts Siskyiou a des fleurs rose lavande à gorge et étamines pourpres.
@@ -642,38 +731,75 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Erythronium</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Erythronium</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les bulbes de la plupart des espèces se multiplient lentement et lorsqu’on effectue des semis il faudra 4 à 5 ans pour obtenir une les premières fleurs ; la raison pourquoi les bulbes sont assez coûteux. De par leur petite taille les bulbes se dessèchent facilement et perdent vite leur pouvoir germinatif. Ils doivent être très frais et être plantés immédiatement après leur obtention – entre fin août et début septembre – dans un sol bien drainé et humifère en situation semi-ombragée.
 Erythronium dens-canis et les espèces asiatiques apparentées sont les plus faciles à cultiver. Erythronium japonicum est souvent attaqué par les limaces.
 Quelques espèces de l’ouest de l'Amérique du Nord sont régulièrement proposées par des bulbiculteurs spécialisés, notamment Erythronium hendersonii et Erythronium revolutum à fleur rose, Erythronium tuolumnense à fleurs jaunes, et Erythronium oregonum et Erythronium californicum à fleurs crème. Les espèces de haute montagne sont difficiles à cultiver.
 L’espèce la plus facile de l’est de l'Amérique du Nord est Erythronium umbilicatum. Les autres espèces sont rarement proposées, car elles ne prospèrent pas bien en dehors de leur milieu naturel.
-Quelques cultivars
-Quelques beaux cultivars de Erythronium dens-canis sont ‘Lilac Wonder’ à fleur lilas, ‘Purple King’ à fleur pourprée, ‘Pink Perfection’ à fleur rose vif et ‘Snowflake’, précoce à fleur blanche.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Erythronium</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erythronium</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Quelques cultivars</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Quelques beaux cultivars de Erythronium dens-canis sont ‘Lilac Wonder’ à fleur lilas, ‘Purple King’ à fleur pourprée, ‘Pink Perfection’ à fleur rose vif et ‘Snowflake’, précoce à fleur blanche.
 Erythronium ‘White Beauty’, un robuste cultivar d’origine inconnue – vraisemblablement une forme vigoureuse de Erythronium californicum, très vraisemblablement pas (comme on le croit souvent) de Erythronium revolutum – est facile à cultiver.
 Erythronium ‘Kondo’ à fleurs jaunes et Erythronium ‘Pagoda’ à fleurs jaune clair sont de robustes croisements entre Erythronium tuolumnense et Erythronium ‘White Beauty’.
 Erythronium ‘Jeanette Brickel’ – un hybride décoratif rarement proposé entre Erythronium hendersonii et Erythronium ‘White Beauty’ – a de grandes fleurs roses.
@@ -686,95 +812,101 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Erythronium</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Erythronium</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Usage alimentaire : le katakuriko</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Certains bulbes sont comestibles comme légume-racine, cuit, séché ou moulu en farine. Ainsi, au Japon, le bulbe de Erythronium japonicum (katakuri en japonais : 片栗) est utilisé pour produire de l'amidon, sous la forme d'une fine poudre blanche et soyeuse. Ce katakuriko était régulièrement utilisé en tant que liant de sauce à l'instar de la Maïzena ou pour accompagner le tempura, essentiellement lorsque la friture doit être rapide afin de ne pas dégrader la garniture. Le katakuriko est aujourd'hui fabriqué à partir de pommes de terre, moins onéreuses et plus disponibles[2]. Chez d'autre espèces le bulbe est toxique (en raison de leur contenu en alcaloïdes).
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certains bulbes sont comestibles comme légume-racine, cuit, séché ou moulu en farine. Ainsi, au Japon, le bulbe de Erythronium japonicum (katakuri en japonais : 片栗) est utilisé pour produire de l'amidon, sous la forme d'une fine poudre blanche et soyeuse. Ce katakuriko était régulièrement utilisé en tant que liant de sauce à l'instar de la Maïzena ou pour accompagner le tempura, essentiellement lorsque la friture doit être rapide afin de ne pas dégrader la garniture. Le katakuriko est aujourd'hui fabriqué à partir de pommes de terre, moins onéreuses et plus disponibles. Chez d'autre espèces le bulbe est toxique (en raison de leur contenu en alcaloïdes).
 Les feuilles de certaines espèces peuvent également être mangées, cuites bien que parfois légèrement émétiques. 
-Remarque : Les bulbes d' Erythronium sont généralement petits, et leur récolte fait disparaitre la plante ; les feuilles sont généralement peu nombreuses (deux chez certaines espèces) faisant que les cueillir peut tuer la plante[3].
+Remarque : Les bulbes d' Erythronium sont généralement petits, et leur récolte fait disparaitre la plante ; les feuilles sont généralement peu nombreuses (deux chez certaines espèces) faisant que les cueillir peut tuer la plante.
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Erythronium</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Erythronium</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Dans la culture populaire</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Un personnage de One Piece tient son nom de cette fleur, Charlotte Dent-de-chien.
 </t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>Erythronium</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Erythronium</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Leo Jellito &amp; Wilhelm Schacht, Hardy Herbaceous Perennials, Timber press, 1995 –  (ISBN 0-88192-159-9)
 Molly M Grothaus, The Genus Erythronium, pp. 139-150 in: Bulbs of North America, Timber press, 2001 –  (ISBN 0-88192-511-X)
